--- a/ESP/data/working-experience.xlsx
+++ b/ESP/data/working-experience.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B97BC-D6E5-4B9D-A0DE-93E45BD9AFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11248759-514A-415E-9348-0F4C992315E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,48 +70,6 @@
     <t>Stirling, Reino Unido</t>
   </si>
   <si>
-    <t>Investigador en el Laboratorio de Análisis del Comportamiento Humano (LACH).</t>
-  </si>
-  <si>
-    <t>Supervisión de una variedad de proyectos de investigación de pregrado asociados con psicología y biología.</t>
-  </si>
-  <si>
-    <t>Miembro del Comité de Investigación.</t>
-  </si>
-  <si>
-    <t>Líder del grupo de investigación Procesos Cognitivos y Educación (desde 2016).</t>
-  </si>
-  <si>
-    <t>Miembro del Comité Asesor de Asuntos Éticos.</t>
-  </si>
-  <si>
-    <t>Estancia posdoctoral (2018-2019).</t>
-  </si>
-  <si>
-    <t>Asesor metodológico y estadístico para proyectos de investigación de posgrado y profesores de la Facultad.</t>
-  </si>
-  <si>
-    <t>Organizador de la serie de conferencias semanales Café Nerd de la Facultad de Psicología (2016-2017).</t>
-  </si>
-  <si>
-    <t>Co-supervisión de estudiantes de doctorado: Milena Vásquez-Amézquita (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018).</t>
-  </si>
-  <si>
-    <t>Co-supervisión de estudiantes de doctorado: Francisco Javier Flores  (Professional Doctorate in Counselling Psychology, University of East London, Reino Unido – 2016-2018).</t>
-  </si>
-  <si>
-    <t>Docencia y supervisión de proyectos de investigación.</t>
-  </si>
-  <si>
-    <t>Supervisión de un proyecto de investigación de maestría (Evolutionary Psychology MSc).</t>
-  </si>
-  <si>
-    <t>Supervisión de proyectos de investigación.</t>
-  </si>
-  <si>
-    <t>Calificación y asesoramiento estadístico a estudiantes de maestría.</t>
-  </si>
-  <si>
     <t>Profesor Asociado</t>
   </si>
   <si>
@@ -125,6 +83,48 @@
   </si>
   <si>
     <t>Profesor Auxiliar</t>
+  </si>
+  <si>
+    <t>Investigador en el Laboratorio de Análisis del Comportamiento Humano (LACH)</t>
+  </si>
+  <si>
+    <t>Líder del grupo de investigación Procesos Cognitivos y Educación (desde 2016)</t>
+  </si>
+  <si>
+    <t>Supervisión de una variedad de proyectos de investigación de pregrado asociados con psicología y biología</t>
+  </si>
+  <si>
+    <t>Miembro del Comité de Investigación</t>
+  </si>
+  <si>
+    <t>Miembro del Comité Asesor de Asuntos Éticos</t>
+  </si>
+  <si>
+    <t>Asesor metodológico y estadístico para proyectos de investigación de posgrado y profesores de la Facultad</t>
+  </si>
+  <si>
+    <t>Organizador de la serie de conferencias semanales Café Nerd de la Facultad de Psicología (2016-2017)</t>
+  </si>
+  <si>
+    <t>Estancia posdoctoral (2018-2019)</t>
+  </si>
+  <si>
+    <t>Co-supervisión de estudiantes de doctorado: Milena Vásquez-Amézquita (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018)</t>
+  </si>
+  <si>
+    <t>Co-supervisión de estudiantes de doctorado: Francisco Javier Flores  (Professional Doctorate in Counselling Psychology, University of East London, Reino Unido – 2016-2018)</t>
+  </si>
+  <si>
+    <t>Docencia y supervisión de proyectos de investigación</t>
+  </si>
+  <si>
+    <t>Supervisión de un proyecto de investigación de maestría (Evolutionary Psychology MSc)</t>
+  </si>
+  <si>
+    <t>Calificación y asesoramiento estadístico a estudiantes de maestría</t>
+  </si>
+  <si>
+    <t>Supervisión de proyectos de investigación</t>
   </si>
 </sst>
 </file>
@@ -446,19 +446,19 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,9 +475,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -489,32 +489,32 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -526,47 +526,47 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -578,12 +578,12 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -595,17 +595,17 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2010</v>
@@ -617,12 +617,12 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
